--- a/data/financial_statements/sofp/STT.xlsx
+++ b/data/financial_statements/sofp/STT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,2165 +584,2216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>111428000000</v>
+      </c>
+      <c r="C2">
         <v>103940000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>100806000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>108543000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>113759000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>115726000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>122684000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>118130000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>124348000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>86154000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>98793000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>154576000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>74668000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>69802000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>68902000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>60711000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>81791000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>72959000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>84995000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>88278000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>73668000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>69495000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>70841000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>72824000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>75229000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>86085000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>82742000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>73362000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>80798000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>82399000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>125632000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>99023000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>98692000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>94728000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>109255000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>86649000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>74550000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>49275000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>56484000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>53289000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>146915000000</v>
+      </c>
+      <c r="C3">
         <v>143482000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>137679000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>147044000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>149482000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>151835000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>156646000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>152899000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>155256000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>116346000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>128747000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>190132000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>104134000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>99998000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>97453000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>87299000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>110716000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>99467000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>112150000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>120989000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>100007000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>96119000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>97953000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>98000000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>97577000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>110130000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>104929000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>94873000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>101897000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>103689000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>146564000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>119582000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>119095000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>115410000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>128243000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>104930000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>90131000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>66925000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>74948000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>69355000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2315000000</v>
+      </c>
+      <c r="C4">
         <v>2283000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2240000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2229000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2261000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2191000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2169000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2143000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2154000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2193000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2212000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2225000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2282000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2306000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2244000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2230000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2214000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2193000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2189000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2194000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2186000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2167000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2137000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2101000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2062000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2042000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1994000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1949000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1894000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1984000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2035000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1933000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1937000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1911000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1920000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1896000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1860000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1816000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1772000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1756000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>105279000000</v>
+      </c>
+      <c r="C5">
         <v>106218000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>109715000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>119551000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>115829000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>113625000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>112679000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>106974000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>111276000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>111998000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>109336000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>123801000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>95597000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>93876000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>92478000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>90147000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>87062000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>86669000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>86942000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>85462000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>97579000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>93088000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>95255000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>94639000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>97167000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>99888000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>103121000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>102298000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>100022000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>97560000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>101463000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>112857000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>112636000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>115319000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>117303000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>117504000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>116914000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>116680000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>115648000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>117429000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>9039000000</v>
+      </c>
+      <c r="C6">
         <v>8919000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>9119000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9326000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9437000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9537000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>9562000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9636000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>9510000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>9477000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>9452000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>9469000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>9586000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>9577000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>9720000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>9757000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>9815000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>7477000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>7473000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>7646000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>7635000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>7655000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>7638000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>7565000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>7564000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>7760000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>7353000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>7482000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>7439000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>7536000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>7600000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>7555000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>7851000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>8020000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>8284000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>8344000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>8396000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>8402000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>8330000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>8364000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>37902000000</v>
+      </c>
+      <c r="C7">
         <v>42666000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>41470000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>44200000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37615000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>45951000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>45472000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>45233000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>36510000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>32061000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>30495000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>36900000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>34011000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>38849000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>39645000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>38899000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>34789000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>38201000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>39554000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>33995000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>31018000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>36957000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>35291000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>34497000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>38328000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>36320000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>37989000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>37083000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>33903000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>36505000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>36909000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>37549000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>32600000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>34145000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>26574000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>23989000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>25990000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>23357000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>26602000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>21285000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>154535000000</v>
+      </c>
+      <c r="C8">
         <v>160086000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>162544000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>175306000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>165142000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>171304000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>169882000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>163986000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>159450000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>155729000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>151495000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>172395000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>141476000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>144608000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>144087000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>141033000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>133880000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>134540000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>136158000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>129297000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>138418000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>139867000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>140321000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>138802000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>145121000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>146010000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>150457000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>148812000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>143258000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>143585000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>148007000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>159894000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>155024000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>159395000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>154081000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>151733000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>153160000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>150255000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>152352000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>148834000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>301450000000</v>
+      </c>
+      <c r="C9">
         <v>303568000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>300223000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>322350000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>314624000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>323139000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>326528000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>316885000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>314706000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>272075000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>280242000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>362527000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>245610000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>244606000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>241540000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>228332000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>244596000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>234007000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>248308000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>250286000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>238425000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>235986000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>238274000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>236802000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>242698000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>256140000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>255386000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>243685000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>245155000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>247274000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>294571000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>279476000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>274119000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>274805000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>282324000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>256663000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>243291000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>217180000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>227300000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>218189000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>3274000000</v>
+      </c>
+      <c r="C10">
         <v>4359000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1024000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4295000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1703000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1186000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1293000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1429000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>7400000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>13087000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>15686000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>35873000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1941000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>8403000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>6768000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2367000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>4174000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2699000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>4191000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>3086000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>3986000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>5120000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>5321000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>5180000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>5985000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>5777000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>6062000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>5930000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>6253000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>11546000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>15749000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>14521000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>13327000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>13709000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>13504000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>12782000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>11752000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>13874000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>12529000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>16462000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>235464000000</v>
+      </c>
+      <c r="C11">
         <v>238236000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>241913000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>251043000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>255035000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>259373000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>263969000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>244893000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>239798000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>197513000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>200462000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>257104000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>181872000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>170886000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>170594000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>162471000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>180360000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>168198000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>186663000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>191517000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>184896000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>179263000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>181416000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>183465000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>187163000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>198766000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>193130000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>185516000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>191627000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>186367000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>230591000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>211352000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>209040000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>207968000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>218834000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>194648000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>182268000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>154199000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>166520000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>154775000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>22525000000</v>
+      </c>
+      <c r="C12">
         <v>21326000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>17989000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>26866000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>17048000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>22288000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>23067000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>31722000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>27503000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>22064000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>23634000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>30151000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>24857000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>28653000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>27350000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>27274000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>24232000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>28222000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>24496000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>22340000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>15606000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>17390000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>17732000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>15469000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>16901000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>17582000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>22166000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>20388000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>14643000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>15804000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>17646000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>23610000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>20382000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>22956000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>19249000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>18457000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>19194000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>19929000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>19329000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>18643000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>4359000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1024000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4295000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1932000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1186000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1293000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1429000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>9132000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>13087000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>15686000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>35873000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>261263000000</v>
+      </c>
+      <c r="C14">
         <v>263921000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>260926000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>282204000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>273786000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>282847000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>288329000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>278044000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>274701000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>232664000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>239782000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>323128000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>208670000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>207942000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>204712000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>192112000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>208766000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>199119000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>215350000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>216943000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>204488000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>201773000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>204469000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>204114000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>210049000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>222125000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>221358000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>211834000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>212523000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>213717000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>263986000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>249483000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>242749000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>244633000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>251587000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>225887000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>213214000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>188002000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>198378000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>189880000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>14996000000</v>
+      </c>
+      <c r="C15">
         <v>13999000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>13530000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>13922000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>13475000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>12978000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>13032000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>13836000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>13805000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>13853000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>15587000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>15538000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>12509000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>11455000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>11374000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>11182000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>11093000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>10335000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>10387000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>10944000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>11620000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>11716000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>11737000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>11394000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>11430000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>11834000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>11924000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>10323000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>11497000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>12025000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>9085000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>9174000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>10042000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>9016000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>9037000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>9503000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>9699000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>8748000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>8841000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>7440000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>21326000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>17989000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>26866000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>16359000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>22288000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>23067000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>31722000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>26612000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>22064000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>23634000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>30151000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>14996000000</v>
+      </c>
+      <c r="C17">
         <v>13999000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>13530000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>13922000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>13475000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>12978000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>13032000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>13836000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>13805000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>13853000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>15587000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>15538000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>12509000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>11455000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>11374000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>11182000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>11093000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>10335000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>10387000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>10944000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>11620000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>11716000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>11737000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>11394000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>11430000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>11834000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>11924000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>10323000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>11497000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>12025000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>9085000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>9174000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>10042000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>9016000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>9037000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>9503000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>9699000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>8748000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>8841000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>7440000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>276259000000</v>
+      </c>
+      <c r="C18">
         <v>277920000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>274456000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>296126000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>287261000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>295825000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>301361000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>291880000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>288506000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>246517000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>255369000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>338666000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>221179000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>219397000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>216086000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>203294000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>219859000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>209454000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>225737000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>227887000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>216108000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>213489000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>216206000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>215508000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>221479000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>233959000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>233282000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>222157000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>224020000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>225742000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>273071000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>258657000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>252791000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>253649000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>260624000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>235390000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>222913000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>196750000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>207219000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>197320000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>10730000000</v>
+      </c>
+      <c r="C19">
         <v>10760000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>10757000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>10762000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>10787000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>10763000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>10246000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>10227000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>10205000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>10192000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>10179000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>10155000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>10132000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>10117000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>10109000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>10082000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>10061000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>10418000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>9820000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>9796000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>9799000000</v>
-      </c>
-      <c r="V19">
-        <v>9803000000</v>
       </c>
       <c r="W19">
         <v>9803000000</v>
       </c>
       <c r="X19">
+        <v>9803000000</v>
+      </c>
+      <c r="Y19">
         <v>9796000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>9782000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>9778000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>9767000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>9739000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>9746000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>9742000000</v>
-      </c>
-      <c r="AE19">
-        <v>9744000000</v>
       </c>
       <c r="AF19">
         <v>9744000000</v>
       </c>
       <c r="AG19">
+        <v>9744000000</v>
+      </c>
+      <c r="AH19">
         <v>9791000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>9780000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>9765000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>9737000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>9776000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>9753000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>9713000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>9669000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1976000000</v>
@@ -2652,7 +2817,7 @@
         <v>1976000000</v>
       </c>
       <c r="I20">
-        <v>2471000000</v>
+        <v>1976000000</v>
       </c>
       <c r="J20">
         <v>2471000000</v>
@@ -2664,10 +2829,10 @@
         <v>2471000000</v>
       </c>
       <c r="M20">
+        <v>2471000000</v>
+      </c>
+      <c r="N20">
         <v>2962000000</v>
-      </c>
-      <c r="N20">
-        <v>3690000000</v>
       </c>
       <c r="O20">
         <v>3690000000</v>
@@ -2682,7 +2847,7 @@
         <v>3690000000</v>
       </c>
       <c r="S20">
-        <v>3196000000</v>
+        <v>3690000000</v>
       </c>
       <c r="T20">
         <v>3196000000</v>
@@ -2709,7 +2874,7 @@
         <v>3196000000</v>
       </c>
       <c r="AB20">
-        <v>2703000000</v>
+        <v>3196000000</v>
       </c>
       <c r="AC20">
         <v>2703000000</v>
@@ -2721,13 +2886,13 @@
         <v>2703000000</v>
       </c>
       <c r="AF20">
-        <v>1961000000</v>
+        <v>2703000000</v>
       </c>
       <c r="AG20">
         <v>1961000000</v>
       </c>
       <c r="AH20">
-        <v>1233000000</v>
+        <v>1961000000</v>
       </c>
       <c r="AI20">
         <v>1233000000</v>
@@ -2736,21 +2901,24 @@
         <v>1233000000</v>
       </c>
       <c r="AK20">
+        <v>1233000000</v>
+      </c>
+      <c r="AL20">
         <v>491000000</v>
-      </c>
-      <c r="AL20">
-        <v>490000000</v>
       </c>
       <c r="AM20">
         <v>490000000</v>
       </c>
       <c r="AN20">
+        <v>490000000</v>
+      </c>
+      <c r="AO20">
         <v>489000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>504000000</v>
@@ -2869,742 +3037,763 @@
       <c r="AN21">
         <v>504000000</v>
       </c>
+      <c r="AO21">
+        <v>504000000</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>27028000000</v>
+      </c>
+      <c r="C22">
         <v>26552000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>26115000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>25612000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>25238000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>24785000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>24300000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>23751000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>23442000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>23128000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>22794000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>22315000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>21918000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>21612000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>21274000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>20911000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>20553000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>20387000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>19856000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>19311000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>18856000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>18675000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>18202000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>17762000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>17459000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>17047000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>16686000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>16233000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>16049000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>15795000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>15390000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>15135000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>14737000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>14531000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>14114000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>13639000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>13395000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>12963000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>12545000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>12090000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>11336000000</v>
+      </c>
+      <c r="C23">
         <v>9876000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>9898000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>9932000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>10009000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>10032000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>11437000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>11035000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>10609000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>10626000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>10645000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>10664000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>10209000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>9729000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>9249000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>8969000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>8715000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>8735000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>9317000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>9334000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>9029000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>8697000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>8367000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>8159000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>7682000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>7382000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>7083000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>6719000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>6457000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>6143000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>5830000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>5519000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>5158000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>4785000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>4405000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>4028000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>3693000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>3166000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2648000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>2134000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>23215000000</v>
+      </c>
+      <c r="C24">
         <v>23672000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>23791000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>24248000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>25387000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>25338000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>23191000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>23029000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>23729000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>23087000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>22402000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>21390000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>21469000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>21519000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>21764000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>21348000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>21047000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>20863000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>19375000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>19203000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>19121000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>19301000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>18872000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>18098000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>18023000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>18985000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>18908000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>18825000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>18432000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>18829000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>18797000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>18858000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>19367000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>19923000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>20467000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>20040000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>19887000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>19940000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>19591000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>20380000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>25191000000</v>
+      </c>
+      <c r="C25">
         <v>25648000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>25767000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>26224000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>27363000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>27314000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>25167000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>25005000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>26200000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>25558000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>24873000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>23861000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>24431000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>25209000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>25454000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>25038000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>24737000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>24553000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>22571000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>22399000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>22317000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>22497000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>22068000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>21294000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>21219000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>22181000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>22104000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>21528000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>21135000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>21532000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>21500000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>20819000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>21328000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>21156000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>21700000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>21273000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>20378000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>20430000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>20081000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>20869000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>301450000000</v>
+      </c>
+      <c r="C26">
         <v>303568000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>300223000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>322350000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>314624000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>323139000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>326528000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>316885000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>314706000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>272075000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>280242000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>362527000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>245610000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>244606000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>241540000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>228332000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>244596000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>234007000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>248308000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>250286000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>238425000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>235986000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>238274000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>236802000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>242698000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>256140000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>255386000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>243685000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>245155000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>247274000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>294571000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>279476000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>274119000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>274805000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>282324000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>256663000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>243291000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>217180000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>227300000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>218189000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>349024000</v>
+      </c>
+      <c r="C27">
         <v>367968000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>367619000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>367115000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>365983000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>365629000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>343503000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>348033000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>353156000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>352798000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>352383000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>351944000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>357389000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>363623000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>372573000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>376721000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>379947000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>379490000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>365828000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>365407000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>367650000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>370841000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>374107000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>376359000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>381939000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>385570000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>389650000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>395563000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>399652000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>403793000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>407754000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>411311000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>415195000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>419932000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>424970000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>430441000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>434129000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>441298000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>448395000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>455592000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>20000</v>
@@ -3631,7 +3820,7 @@
         <v>20000</v>
       </c>
       <c r="J28">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="K28">
         <v>25000</v>
@@ -3640,10 +3829,10 @@
         <v>25000</v>
       </c>
       <c r="M28">
+        <v>25000</v>
+      </c>
+      <c r="N28">
         <v>30000</v>
-      </c>
-      <c r="N28">
-        <v>37500</v>
       </c>
       <c r="O28">
         <v>37500</v>
@@ -3658,7 +3847,7 @@
         <v>37500</v>
       </c>
       <c r="S28">
-        <v>32500</v>
+        <v>37500</v>
       </c>
       <c r="T28">
         <v>32500</v>
@@ -3685,7 +3874,7 @@
         <v>32500</v>
       </c>
       <c r="AB28">
-        <v>27500</v>
+        <v>32500</v>
       </c>
       <c r="AC28">
         <v>27500</v>
@@ -3697,22 +3886,22 @@
         <v>27500</v>
       </c>
       <c r="AF28">
+        <v>27500</v>
+      </c>
+      <c r="AG28">
         <v>20000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>27500</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>12500</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>13000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>12000</v>
-      </c>
-      <c r="AK28">
-        <v>5000</v>
       </c>
       <c r="AL28">
         <v>5000</v>
@@ -3723,370 +3912,382 @@
       <c r="AN28">
         <v>5000</v>
       </c>
+      <c r="AO28">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>16152000000</v>
+      </c>
+      <c r="C29">
         <v>16729000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>16648000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>16898000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>17926000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>17777000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>15605000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>15369000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>16690000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>16081000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>15421000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>14392000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>14845000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>15632000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>15734000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>15281000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>14922000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>17076000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>15098000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>14753000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>14682000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>14842000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>14430000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>13729000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>13655000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>14421000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>14751000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>14046000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>13696000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>13996000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>13900000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>13264000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>13477000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>13136000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>13416000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>12929000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>11982000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>12028000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>11751000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>12505000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>-96432000000</v>
+      </c>
+      <c r="C30">
         <v>-85582000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-86252000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-90326000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-98352000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-101562000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-108359000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-102865000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-101411000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-59214000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-67520000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-103165000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-62159000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-58347000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-57528000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-49529000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-70698000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-62624000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-74608000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-77334000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-62048000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-57779000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-59104000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-61430000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-63799000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-74251000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-70818000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-63039000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-69301000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-70374000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-116547000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-89849000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-88650000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-85712000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-100218000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-77146000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-64851000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-40527000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-47643000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-45849000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>14996000000</v>
+      </c>
+      <c r="C31">
         <v>18358000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>14554000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>18217000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>15407000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>14164000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>14325000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>15265000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>22937000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>26940000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>31273000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>51411000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>12509000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>11455000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>11374000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>11182000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>11093000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>10335000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>10387000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>10944000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>11620000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>11716000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>11737000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>11394000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>11430000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>11834000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>11924000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>10323000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>11497000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>12025000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>9085000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>9174000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>10042000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>9016000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>9037000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>9503000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>9699000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>8748000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>8841000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>7440000000</v>
       </c>
     </row>
